--- a/Zeitblätter/Jim Frey.xlsx
+++ b/Zeitblätter/Jim Frey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Documents\Eigene Daten\#Master_3\S1 Kopplung\GitHub AlienHacky\Zeitblätter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\GitHub_AlienHacky\Zeitblätter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Doku auf Stand gebracht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC2650 in betrieb genommen, TI RTOS eingelesen, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C Beispiel geschrieben, gibt fehler beim start der Transaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC2650 I2C Beispiel laufen lassen, nun spinnt der debugger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Pins geprüft zwischen CC2650 und Senor Hub, Bild erstellt, wie Pins angepasst werden müssen. Konkret I2C  muss anders liegen, wenn Analog kein interrupt hat muss der Lichtsensor Pin umgelegt werden.  Stecker gesucht und flachbandkabel! </t>
   </si>
 </sst>
 </file>
@@ -427,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -464,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42645</v>
@@ -558,7 +570,7 @@
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42656</v>
@@ -643,21 +655,36 @@
         <f t="shared" si="0"/>
         <v>42664</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42665</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42666</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -666,12 +693,17 @@
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42668</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -725,7 +757,7 @@
       </c>
       <c r="B36" s="8">
         <f>SUM(B5:B34)</f>
-        <v>24.2</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
